--- a/children/ValueSet-HearingCodes.xlsx
+++ b/children/ValueSet-HearingCodes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-06-21T14:15:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-HearingCodes.xlsx
+++ b/children/ValueSet-HearingCodes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T14:15:43+02:00</t>
+    <t>2024-06-05T11:21:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-HearingCodes.xlsx
+++ b/children/ValueSet-HearingCodes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-06-24T13:11:12+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-HearingCodes.xlsx
+++ b/children/ValueSet-HearingCodes.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T13:11:12+02:00</t>
+    <t>2024-06-05T11:21:47+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/children/ValueSet-HearingCodes.xlsx
+++ b/children/ValueSet-HearingCodes.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-05T11:21:47+02:00</t>
+    <t>2024-07-01T22:52:03+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,6 +75,12 @@
     <t>Kommunernes Landsforening (http://kl.dk)</t>
   </si>
   <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>Description</t>
   </si>
   <si>
@@ -103,9 +109,6 @@
   </si>
   <si>
     <t>4d4b20b6-0159-4014-ac1c-46a7a860b204</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -245,7 +248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -347,20 +350,28 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -382,44 +393,44 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>30</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/children/ValueSet-HearingCodes.xlsx
+++ b/children/ValueSet-HearingCodes.xlsx
@@ -7,7 +7,7 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from FBOE" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.1</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T22:52:03+02:00</t>
+    <t>2024-10-31T20:37:15+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
